--- a/Module 25 - Consolidated Financial Statements Introduction.xlsx
+++ b/Module 25 - Consolidated Financial Statements Introduction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/FINREP Class Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9502D1FC-67F6-4EB5-B9F5-87AC07F16F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261867E8-25EB-4C95-94E9-49BDD91368B1}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{9502D1FC-67F6-4EB5-B9F5-87AC07F16F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{410EE98E-9DCC-4B36-BD88-A954BC151F20}"/>
   <bookViews>
-    <workbookView xWindow="-4230" yWindow="-18825" windowWidth="16200" windowHeight="11385" activeTab="1" xr2:uid="{4C8CAA94-C085-4B47-8607-424250A05137}"/>
+    <workbookView xWindow="7575" yWindow="-11580" windowWidth="21600" windowHeight="11160" activeTab="2" xr2:uid="{4C8CAA94-C085-4B47-8607-424250A05137}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>being dividend declared, not received.</t>
   </si>
@@ -100,30 +100,12 @@
     <t>Ham has a 56% shareholding in Boxer, representing a controlling interest, making Boxer a subsidiary of Ham.</t>
   </si>
   <si>
-    <t>cr SPL - finance incoem</t>
-  </si>
-  <si>
-    <t>250000*.2</t>
-  </si>
-  <si>
     <t>dr accrued income</t>
   </si>
   <si>
-    <t>250000*0.1</t>
-  </si>
-  <si>
     <t>dr suspense account</t>
   </si>
   <si>
-    <t>cr suspense</t>
-  </si>
-  <si>
-    <t>dr cash</t>
-  </si>
-  <si>
-    <t>historic journal</t>
-  </si>
-  <si>
     <t>2.  Boxer pays divi of 10p in Septmber and announced YE divi of 20p</t>
   </si>
   <si>
@@ -158,13 +140,32 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash consideratoins </t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>£ per share</t>
+  </si>
+  <si>
+    <t>Dividends received</t>
+  </si>
+  <si>
+    <t>being correction to dividend received and accrual of dividend declared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;£&quot;#,##0.00;\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -207,12 +208,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -221,7 +233,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -230,6 +242,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -608,10 +624,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -628,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E574895-7B92-456C-B57D-F3A02859C4FB}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -641,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,9 +782,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB0A93-E2E1-450D-B4C1-CC1CC8CB7F76}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -779,181 +797,261 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>250</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="2">
+        <f>+D9*F9</f>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SUM(G11:G13)</f>
-        <v>2350000</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>250</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="2">
+        <f>+D10*E10*F10</f>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2">
-        <f>250000*2*0.5</f>
-        <v>250000</v>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>250</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2">
-        <f>250000*2*(3.45-0.5)</f>
-        <v>1475000</v>
+      <c r="F12" s="7">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="7">
+        <f>SUM(F11:F12)</f>
+        <v>3.2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>+F13*E11*D11</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="6">
+        <f>SUM(G9:G13)</f>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2">
+        <f>+G14</f>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2">
+        <f>+G10</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2">
+        <f>+G13</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2">
-        <f>250000*2.5</f>
-        <v>625000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f>+G9</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>250</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="2">
+        <f>+D25*F25</f>
         <v>25</v>
       </c>
-      <c r="G20" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2">
-        <f>250000*0.1</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1">
+        <v>250</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="2">
+        <f>+D26*F26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="6">
+        <f>SUM(G25:G26)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2">
+        <f>+G25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="2">
-        <f>F22</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2">
-        <f>250000*0.2</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2">
-        <f>F25</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="H35" s="2"/>
+      <c r="F30" s="2">
+        <f>+G26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <f>+G27</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
